--- a/reports/trades_history.xlsx
+++ b/reports/trades_history.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Торговые сделки" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Статистика" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,7 +29,9 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -63,11 +66,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,62 +449,292 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID сделки</t>
+          <t>Символ</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Позиция</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Объем</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Цена входа</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Цена выхода</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Комиссия</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PNL</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Дата открытия</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Дата закрытия</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ID ордера</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>102431.1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>102431.1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0.02458346</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>2025-05-15 15:21:23</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-05-15 15:21:23</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>1306885412215222310</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Общая статистика</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Всего сделок</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Прибыльные сделки</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Убыточные сделки</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Процент успеха</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Общий PNL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.0000 USDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Средняя прибыль</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.0000 USDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Средний убыток</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0000 USDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Общая комиссия</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0246 USDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Статистика по символам</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
           <t>Символ</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Тип</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Объем</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Цена</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Стоимость</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Всего сделок</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Общий PNL</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Средний PNL</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>Комиссия</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Дата и время</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PNL</t>
-        </is>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02458346</v>
       </c>
     </row>
   </sheetData>
